--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Zp3-Egfr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Zp3-Egfr.xlsx
@@ -537,16 +537,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.05685266666666666</v>
+        <v>0.08261866666666666</v>
       </c>
       <c r="H2">
-        <v>0.170558</v>
+        <v>0.247856</v>
       </c>
       <c r="I2">
-        <v>0.4879624410996449</v>
+        <v>0.5806915650061265</v>
       </c>
       <c r="J2">
-        <v>0.4879624410996449</v>
+        <v>0.5806915650061265</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.854571666666667</v>
+        <v>1.370876333333333</v>
       </c>
       <c r="N2">
-        <v>5.563715</v>
+        <v>4.112629</v>
       </c>
       <c r="O2">
-        <v>0.01651371646154392</v>
+        <v>0.01103063309339269</v>
       </c>
       <c r="P2">
-        <v>0.01651371646154392</v>
+        <v>0.01103063309339269</v>
       </c>
       <c r="Q2">
-        <v>0.1054373447744444</v>
+        <v>0.1132599748248889</v>
       </c>
       <c r="R2">
-        <v>0.94893610297</v>
+        <v>1.019339773424</v>
       </c>
       <c r="S2">
-        <v>0.008058073396202362</v>
+        <v>0.006405395594010574</v>
       </c>
       <c r="T2">
-        <v>0.008058073396202363</v>
+        <v>0.006405395594010573</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.05685266666666666</v>
+        <v>0.08261866666666666</v>
       </c>
       <c r="H3">
-        <v>0.170558</v>
+        <v>0.247856</v>
       </c>
       <c r="I3">
-        <v>0.4879624410996449</v>
+        <v>0.5806915650061265</v>
       </c>
       <c r="J3">
-        <v>0.4879624410996449</v>
+        <v>0.5806915650061265</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>278.741173</v>
       </c>
       <c r="O3">
-        <v>0.8273343794712995</v>
+        <v>0.7476219244149905</v>
       </c>
       <c r="P3">
-        <v>0.8273343794712996</v>
+        <v>0.7476219244149904</v>
       </c>
       <c r="Q3">
-        <v>5.282392998281555</v>
+        <v>7.676408019454222</v>
       </c>
       <c r="R3">
-        <v>47.541536984534</v>
+        <v>69.087672175088</v>
       </c>
       <c r="S3">
-        <v>0.4037081034124753</v>
+        <v>0.4341377453214329</v>
       </c>
       <c r="T3">
-        <v>0.4037081034124753</v>
+        <v>0.4341377453214328</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.05685266666666666</v>
+        <v>0.08261866666666666</v>
       </c>
       <c r="H4">
-        <v>0.170558</v>
+        <v>0.247856</v>
       </c>
       <c r="I4">
-        <v>0.4879624410996449</v>
+        <v>0.5806915650061265</v>
       </c>
       <c r="J4">
-        <v>0.4879624410996449</v>
+        <v>0.5806915650061265</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>17.37449166666667</v>
+        <v>29.718484</v>
       </c>
       <c r="N4">
-        <v>52.123475</v>
+        <v>89.155452</v>
       </c>
       <c r="O4">
-        <v>0.1547081917640233</v>
+        <v>0.2391271080585153</v>
       </c>
       <c r="P4">
-        <v>0.1547081917640233</v>
+        <v>0.2391271080585153</v>
       </c>
       <c r="Q4">
-        <v>0.9877861832277778</v>
+        <v>2.455301523434667</v>
       </c>
       <c r="R4">
-        <v>8.890075649049999</v>
+        <v>22.097713710912</v>
       </c>
       <c r="S4">
-        <v>0.0754917869112848</v>
+        <v>0.1388590946138884</v>
       </c>
       <c r="T4">
-        <v>0.0754917869112848</v>
+        <v>0.1388590946138884</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.05685266666666666</v>
+        <v>0.08261866666666666</v>
       </c>
       <c r="H5">
-        <v>0.170558</v>
+        <v>0.247856</v>
       </c>
       <c r="I5">
-        <v>0.4879624410996449</v>
+        <v>0.5806915650061265</v>
       </c>
       <c r="J5">
-        <v>0.4879624410996449</v>
+        <v>0.5806915650061265</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.162136</v>
+        <v>0.275941</v>
       </c>
       <c r="N5">
-        <v>0.4864080000000001</v>
+        <v>0.827823</v>
       </c>
       <c r="O5">
-        <v>0.001443712303133186</v>
+        <v>0.002220334433101459</v>
       </c>
       <c r="P5">
-        <v>0.001443712303133187</v>
+        <v>0.002220334433101458</v>
       </c>
       <c r="Q5">
-        <v>0.009217863962666668</v>
+        <v>0.02279787749866666</v>
       </c>
       <c r="R5">
-        <v>0.08296077566400001</v>
+        <v>0.205180897488</v>
       </c>
       <c r="S5">
-        <v>0.0007044773796824602</v>
+        <v>0.001289329476794677</v>
       </c>
       <c r="T5">
-        <v>0.0007044773796824603</v>
+        <v>0.001289329476794677</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>0.178973</v>
       </c>
       <c r="I6">
-        <v>0.5120375589003551</v>
+        <v>0.4193084349938734</v>
       </c>
       <c r="J6">
-        <v>0.5120375589003551</v>
+        <v>0.4193084349938734</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.854571666666667</v>
+        <v>1.370876333333333</v>
       </c>
       <c r="N6">
-        <v>5.563715</v>
+        <v>4.112629</v>
       </c>
       <c r="O6">
-        <v>0.01651371646154392</v>
+        <v>0.01103063309339269</v>
       </c>
       <c r="P6">
-        <v>0.01651371646154392</v>
+        <v>0.01103063309339269</v>
       </c>
       <c r="Q6">
-        <v>0.1106394182994444</v>
+        <v>0.08178328333522222</v>
       </c>
       <c r="R6">
-        <v>0.995754764695</v>
+        <v>0.736049550017</v>
       </c>
       <c r="S6">
-        <v>0.008455643065341557</v>
+        <v>0.004625237499382119</v>
       </c>
       <c r="T6">
-        <v>0.008455643065341559</v>
+        <v>0.004625237499382118</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>0.178973</v>
       </c>
       <c r="I7">
-        <v>0.5120375589003551</v>
+        <v>0.4193084349938734</v>
       </c>
       <c r="J7">
-        <v>0.5120375589003551</v>
+        <v>0.4193084349938734</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>278.741173</v>
       </c>
       <c r="O7">
-        <v>0.8273343794712995</v>
+        <v>0.7476219244149905</v>
       </c>
       <c r="P7">
-        <v>0.8273343794712996</v>
+        <v>0.7476219244149904</v>
       </c>
       <c r="Q7">
         <v>5.543015995036556</v>
@@ -883,10 +883,10 @@
         <v>49.887143955329</v>
       </c>
       <c r="S7">
-        <v>0.4236262760588242</v>
+        <v>0.3134841790935576</v>
       </c>
       <c r="T7">
-        <v>0.4236262760588243</v>
+        <v>0.3134841790935575</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>0.178973</v>
       </c>
       <c r="I8">
-        <v>0.5120375589003551</v>
+        <v>0.4193084349938734</v>
       </c>
       <c r="J8">
-        <v>0.5120375589003551</v>
+        <v>0.4193084349938734</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>17.37449166666667</v>
+        <v>29.718484</v>
       </c>
       <c r="N8">
-        <v>52.123475</v>
+        <v>89.155452</v>
       </c>
       <c r="O8">
-        <v>0.1547081917640233</v>
+        <v>0.2391271080585153</v>
       </c>
       <c r="P8">
-        <v>0.1547081917640233</v>
+        <v>0.2391271080585153</v>
       </c>
       <c r="Q8">
-        <v>1.036521632352778</v>
+        <v>1.772935412310667</v>
       </c>
       <c r="R8">
-        <v>9.328694691174999</v>
+        <v>15.956418710796</v>
       </c>
       <c r="S8">
-        <v>0.07921640485273851</v>
+        <v>0.1002680134446269</v>
       </c>
       <c r="T8">
-        <v>0.07921640485273851</v>
+        <v>0.1002680134446269</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>0.178973</v>
       </c>
       <c r="I9">
-        <v>0.5120375589003551</v>
+        <v>0.4193084349938734</v>
       </c>
       <c r="J9">
-        <v>0.5120375589003551</v>
+        <v>0.4193084349938734</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.162136</v>
+        <v>0.275941</v>
       </c>
       <c r="N9">
-        <v>0.4864080000000001</v>
+        <v>0.827823</v>
       </c>
       <c r="O9">
-        <v>0.001443712303133186</v>
+        <v>0.002220334433101459</v>
       </c>
       <c r="P9">
-        <v>0.001443712303133187</v>
+        <v>0.002220334433101458</v>
       </c>
       <c r="Q9">
-        <v>0.009672655442666668</v>
+        <v>0.01646199619766666</v>
       </c>
       <c r="R9">
-        <v>0.08705389898400001</v>
+        <v>0.148157965779</v>
       </c>
       <c r="S9">
-        <v>0.0007392349234507261</v>
+        <v>0.0009310049563067817</v>
       </c>
       <c r="T9">
-        <v>0.0007392349234507262</v>
+        <v>0.0009310049563067815</v>
       </c>
     </row>
   </sheetData>
